--- a/biology/Médecine/Institut_Pasteur_de_Madagascar/Institut_Pasteur_de_Madagascar.xlsx
+++ b/biology/Médecine/Institut_Pasteur_de_Madagascar/Institut_Pasteur_de_Madagascar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Institut Pasteur de Madagascar (IPM) est un établissement scientifique privé malgache à but non lucratif et reconnu d’utilité publique du Réseau international des instituts Pasteur, placé sous le Haut patronage du gouvernement de la République malgache.
 Créé en 1898, il est régi par la convention de 1961 qui lie l’Institut Pasteur à Paris et le ministère de la Santé de Madagascar.
-Les travaux d'André Thiroux, alors chercheur à l'Institut Pasteur de Tananarive ont permis à Madagascar d'être le premier pays au monde à éradiquer la variole[1].
+Les travaux d'André Thiroux, alors chercheur à l'Institut Pasteur de Tananarive ont permis à Madagascar d'être le premier pays au monde à éradiquer la variole.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Principales dates clés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>17 mars 1898 : création de l’Institut vaccinogène et antirabique de Tananarive
 23 mars 1900 : inauguration de l’Institut
@@ -547,7 +561,9 @@
           <t>Les directeurs de l’IPM depuis sa création[2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>André Thiroux 1898 – 1903
 J. Neiret 1903 – 1906
